--- a/chapter6/Chapter6-2b.xlsx
+++ b/chapter6/Chapter6-2b.xlsx
@@ -455,7 +455,7 @@
   <dimension ref="A1:M92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6:M92"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,7 +492,7 @@
       </c>
       <c r="M1">
         <f>SUM(M6:M92)</f>
-        <v>28.721089329104423</v>
+        <v>28.721089337019841</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -550,22 +550,22 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>-2.0319930375475859E-2</v>
+        <v>-2.0319701168630175E-2</v>
       </c>
       <c r="C4">
-        <v>-7.9392719211493438E-3</v>
+        <v>-7.9392416219025794E-3</v>
       </c>
       <c r="D4">
-        <v>-9.7139781167610559E-2</v>
+        <v>-9.7137358474937971E-2</v>
       </c>
       <c r="E4">
-        <v>-1.073170316981471E-2</v>
+        <v>-1.0730979408885798E-2</v>
       </c>
       <c r="F4">
-        <v>-3.7996056717689232E-3</v>
+        <v>-3.7996606494114355E-3</v>
       </c>
       <c r="G4">
-        <v>4.2230737203859805</v>
+        <v>4.222998781865865</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -633,11 +633,11 @@
       </c>
       <c r="H6">
         <f>$G$4+SUMPRODUCT($B$4:$F$4, B6:F6)</f>
-        <v>-35.675130964607604</v>
+        <v>-35.67431731446915</v>
       </c>
       <c r="I6">
         <f>1/(1+EXP(0-H6))</f>
-        <v>3.2098702741795769E-16</v>
+        <v>3.2124830483704801E-16</v>
       </c>
       <c r="J6">
         <f>IF(I6&lt;=0.5,0,1)</f>
@@ -652,7 +652,7 @@
         <v>0.99999999999999967</v>
       </c>
       <c r="M6">
-        <f>-LN(IF(L6&lt;=10^(-10), 10^(-10), L6))</f>
+        <f>IF(L6=0, 1000000, -LN(L6))</f>
         <v>3.3306690738754701E-16</v>
       </c>
     </row>
@@ -680,11 +680,11 @@
       </c>
       <c r="H7">
         <f t="shared" ref="H7:H70" si="1">$G$4+SUMPRODUCT($B$4:$F$4, B7:F7)</f>
-        <v>-2.1260118066944473</v>
+        <v>-2.1258483260763406</v>
       </c>
       <c r="I7">
         <f t="shared" ref="I7:I70" si="2">1/(1+EXP(0-H7))</f>
-        <v>0.10659419933427562</v>
+        <v>0.10660976890153794</v>
       </c>
       <c r="J7">
         <f t="shared" ref="J7:J70" si="3">IF(I7&lt;=0.5,0,1)</f>
@@ -696,11 +696,11 @@
       </c>
       <c r="L7">
         <f t="shared" ref="L7:L70" si="5">IF(G7=1,I7,1-I7)</f>
-        <v>0.89340580066572439</v>
+        <v>0.89339023109846205</v>
       </c>
       <c r="M7">
-        <f t="shared" ref="M7:M70" si="6">-LN(IF(L7&lt;=10^(-10), 10^(-10), L7))</f>
-        <v>0.11271437728720674</v>
+        <f t="shared" ref="M7:M70" si="6">IF(L7=0, 1000000, -LN(L7))</f>
+        <v>0.11273180464543447</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -727,11 +727,11 @@
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>-0.64297897282947414</v>
+        <v>-0.64295318080499619</v>
       </c>
       <c r="I8">
         <f t="shared" si="2"/>
-        <v>0.34457344931158984</v>
+        <v>0.34457927427248131</v>
       </c>
       <c r="J8">
         <f t="shared" si="3"/>
@@ -743,11 +743,11 @@
       </c>
       <c r="L8">
         <f t="shared" si="5"/>
-        <v>0.34457344931158984</v>
+        <v>0.34457927427248131</v>
       </c>
       <c r="M8">
         <f t="shared" si="6"/>
-        <v>1.0654480057046147</v>
+        <v>1.0654311010020945</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -774,11 +774,11 @@
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>2.0493489375423724</v>
+        <v>2.0492994918243399</v>
       </c>
       <c r="I9">
         <f t="shared" si="2"/>
-        <v>0.88588181594930215</v>
+        <v>0.88587681712797828</v>
       </c>
       <c r="J9">
         <f t="shared" si="3"/>
@@ -790,11 +790,11 @@
       </c>
       <c r="L9">
         <f t="shared" si="5"/>
-        <v>0.88588181594930215</v>
+        <v>0.88587681712797828</v>
       </c>
       <c r="M9">
         <f t="shared" si="6"/>
-        <v>0.12117172785077866</v>
+        <v>0.12117737062991411</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -821,11 +821,11 @@
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>-4.9878990175079698</v>
+        <v>-4.9878491215796927</v>
       </c>
       <c r="I10">
         <f t="shared" si="2"/>
-        <v>6.7737810666709834E-3</v>
+        <v>6.7741167695965646E-3</v>
       </c>
       <c r="J10">
         <f t="shared" si="3"/>
@@ -837,11 +837,11 @@
       </c>
       <c r="L10">
         <f t="shared" si="5"/>
-        <v>0.99322621893332896</v>
+        <v>0.99322588323040339</v>
       </c>
       <c r="M10">
         <f t="shared" si="6"/>
-        <v>6.7968272538186728E-3</v>
+        <v>6.797165246287964E-3</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -868,11 +868,11 @@
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>-6.9289376322566811</v>
+        <v>-6.9288615190318659</v>
       </c>
       <c r="I11">
         <f t="shared" si="2"/>
-        <v>9.7808283443847808E-4</v>
+        <v>9.7815720948861906E-4</v>
       </c>
       <c r="J11">
         <f t="shared" si="3"/>
@@ -884,11 +884,11 @@
       </c>
       <c r="L11">
         <f t="shared" si="5"/>
-        <v>0.99902191716556155</v>
+        <v>0.99902184279051143</v>
       </c>
       <c r="M11">
         <f t="shared" si="6"/>
-        <v>9.7856146957595817E-4</v>
+        <v>9.786359174450282E-4</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -915,11 +915,11 @@
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>0.39279298725185718</v>
+        <v>0.39279450142443784</v>
       </c>
       <c r="I12">
         <f t="shared" si="2"/>
-        <v>0.59695487292208904</v>
+        <v>0.59695523723158384</v>
       </c>
       <c r="J12">
         <f t="shared" si="3"/>
@@ -931,11 +931,11 @@
       </c>
       <c r="L12">
         <f t="shared" si="5"/>
-        <v>0.40304512707791096</v>
+        <v>0.40304476276841616</v>
       </c>
       <c r="M12">
         <f t="shared" si="6"/>
-        <v>0.90870674544368546</v>
+        <v>0.9087076493366617</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -962,11 +962,11 @@
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>0.27973094175788837</v>
+        <v>0.27970125991649741</v>
       </c>
       <c r="I13">
         <f t="shared" si="2"/>
-        <v>0.56948025949265568</v>
+        <v>0.56947298230658172</v>
       </c>
       <c r="J13">
         <f t="shared" si="3"/>
@@ -978,11 +978,11 @@
       </c>
       <c r="L13">
         <f t="shared" si="5"/>
-        <v>0.56948025949265568</v>
+        <v>0.56947298230658172</v>
       </c>
       <c r="M13">
         <f t="shared" si="6"/>
-        <v>0.56303115957072747</v>
+        <v>0.56304393829738097</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1009,11 +1009,11 @@
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
-        <v>-2.4429575618602799</v>
+        <v>-2.442906353599434</v>
       </c>
       <c r="I14">
         <f t="shared" si="2"/>
-        <v>7.9955076770917233E-2</v>
+        <v>7.9958843847470318E-2</v>
       </c>
       <c r="J14">
         <f t="shared" si="3"/>
@@ -1025,11 +1025,11 @@
       </c>
       <c r="L14">
         <f t="shared" si="5"/>
-        <v>0.92004492322908282</v>
+        <v>0.92004115615252968</v>
       </c>
       <c r="M14">
         <f t="shared" si="6"/>
-        <v>8.3332780534347853E-2</v>
+        <v>8.3336874991227189E-2</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1056,11 +1056,11 @@
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>-30.484661607823593</v>
+        <v>-30.484232879754774</v>
       </c>
       <c r="I15">
         <f t="shared" si="2"/>
-        <v>5.7634121939426595E-14</v>
+        <v>5.765883660278014E-14</v>
       </c>
       <c r="J15">
         <f t="shared" si="3"/>
@@ -1103,11 +1103,11 @@
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
-        <v>-4.570202620128053</v>
+        <v>-4.5701459960584234</v>
       </c>
       <c r="I16">
         <f t="shared" si="2"/>
-        <v>1.0249716557102131E-2</v>
+        <v>1.0250291004959078E-2</v>
       </c>
       <c r="J16">
         <f t="shared" si="3"/>
@@ -1119,11 +1119,11 @@
       </c>
       <c r="L16">
         <f t="shared" si="5"/>
-        <v>0.98975028344289784</v>
+        <v>0.98974970899504089</v>
       </c>
       <c r="M16">
         <f t="shared" si="6"/>
-        <v>1.0302606617662901E-2</v>
+        <v>1.0303187014590553E-2</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1150,11 +1150,11 @@
       </c>
       <c r="H17">
         <f t="shared" si="1"/>
-        <v>0.51143703937952889</v>
+        <v>0.51141914440233549</v>
       </c>
       <c r="I17">
         <f t="shared" si="2"/>
-        <v>0.62514328957877352</v>
+        <v>0.6251390960755111</v>
       </c>
       <c r="J17">
         <f t="shared" si="3"/>
@@ -1166,11 +1166,11 @@
       </c>
       <c r="L17">
         <f t="shared" si="5"/>
-        <v>0.62514328957877352</v>
+        <v>0.6251390960755111</v>
       </c>
       <c r="M17">
         <f t="shared" si="6"/>
-        <v>0.46977439219651812</v>
+        <v>0.46978110028632336</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1197,11 +1197,11 @@
       </c>
       <c r="H18">
         <f t="shared" si="1"/>
-        <v>1.4236456320628119</v>
+        <v>1.4236335571772032</v>
       </c>
       <c r="I18">
         <f t="shared" si="2"/>
-        <v>0.80590930038886588</v>
+        <v>0.80590741163432056</v>
       </c>
       <c r="J18">
         <f t="shared" si="3"/>
@@ -1213,11 +1213,11 @@
       </c>
       <c r="L18">
         <f t="shared" si="5"/>
-        <v>0.80590930038886588</v>
+        <v>0.80590741163432056</v>
       </c>
       <c r="M18">
         <f t="shared" si="6"/>
-        <v>0.21578407334245028</v>
+        <v>0.21578641697684897</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1244,11 +1244,11 @@
       </c>
       <c r="H19">
         <f t="shared" si="1"/>
-        <v>-2.3989191634203051</v>
+        <v>-2.3988936866436479</v>
       </c>
       <c r="I19">
         <f t="shared" si="2"/>
-        <v>8.3255152826663223E-2</v>
+        <v>8.325709732999137E-2</v>
       </c>
       <c r="J19">
         <f t="shared" si="3"/>
@@ -1260,11 +1260,11 @@
       </c>
       <c r="L19">
         <f t="shared" si="5"/>
-        <v>0.91674484717333682</v>
+        <v>0.91674290267000869</v>
       </c>
       <c r="M19">
         <f t="shared" si="6"/>
-        <v>8.6926092800971216E-2</v>
+        <v>8.6928213898675097E-2</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1291,11 +1291,11 @@
       </c>
       <c r="H20">
         <f t="shared" si="1"/>
-        <v>-36.617087493587583</v>
+        <v>-36.616680764318403</v>
       </c>
       <c r="I20">
         <f t="shared" si="2"/>
-        <v>1.2514138527430791E-16</v>
+        <v>1.2519229429087646E-16</v>
       </c>
       <c r="J20">
         <f t="shared" si="3"/>
@@ -1338,11 +1338,11 @@
       </c>
       <c r="H21">
         <f t="shared" si="1"/>
-        <v>-13.874811251467612</v>
+        <v>-13.87458678881044</v>
       </c>
       <c r="I21">
         <f t="shared" si="2"/>
-        <v>9.4242245780902627E-7</v>
+        <v>9.4263402000169919E-7</v>
       </c>
       <c r="J21">
         <f t="shared" si="3"/>
@@ -1354,11 +1354,11 @@
       </c>
       <c r="L21">
         <f t="shared" si="5"/>
-        <v>0.99999905757754215</v>
+        <v>0.99999905736598005</v>
       </c>
       <c r="M21">
         <f t="shared" si="6"/>
-        <v>9.4242290193057954E-7</v>
+        <v>9.4263446423115408E-7</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1385,11 +1385,11 @@
       </c>
       <c r="H22">
         <f t="shared" si="1"/>
-        <v>-6.028884983721654</v>
+        <v>-6.0288027912986166</v>
       </c>
       <c r="I22">
         <f t="shared" si="2"/>
-        <v>2.4023922521450494E-3</v>
+        <v>2.4025892442693336E-3</v>
       </c>
       <c r="J22">
         <f t="shared" si="3"/>
@@ -1401,11 +1401,11 @@
       </c>
       <c r="L22">
         <f t="shared" si="5"/>
-        <v>0.997597607747855</v>
+        <v>0.99759741075573072</v>
       </c>
       <c r="M22">
         <f t="shared" si="6"/>
-        <v>2.4052826265482542E-3</v>
+        <v>2.4054800930840593E-3</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1432,11 +1432,11 @@
       </c>
       <c r="H23">
         <f t="shared" si="1"/>
-        <v>-8.1943166099466147</v>
+        <v>-8.1942396982752683</v>
       </c>
       <c r="I23">
         <f t="shared" si="2"/>
-        <v>2.7614270168235431E-4</v>
+        <v>2.7616393523027973E-4</v>
       </c>
       <c r="J23">
         <f t="shared" si="3"/>
@@ -1448,11 +1448,11 @@
       </c>
       <c r="L23">
         <f t="shared" si="5"/>
-        <v>0.9997238572983177</v>
+        <v>0.99972383606476967</v>
       </c>
       <c r="M23">
         <f t="shared" si="6"/>
-        <v>2.7618083609867088E-4</v>
+        <v>2.7620207551203632E-4</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1479,11 +1479,11 @@
       </c>
       <c r="H24">
         <f t="shared" si="1"/>
-        <v>1.518220043720881</v>
+        <v>1.5182028565183292</v>
       </c>
       <c r="I24">
         <f t="shared" si="2"/>
-        <v>0.8202762234238784</v>
+        <v>0.82027368961855052</v>
       </c>
       <c r="J24">
         <f t="shared" si="3"/>
@@ -1495,11 +1495,11 @@
       </c>
       <c r="L24">
         <f t="shared" si="5"/>
-        <v>0.8202762234238784</v>
+        <v>0.82027368961855052</v>
       </c>
       <c r="M24">
         <f t="shared" si="6"/>
-        <v>0.19811413761370214</v>
+        <v>0.19811722658442804</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1526,11 +1526,11 @@
       </c>
       <c r="H25">
         <f t="shared" si="1"/>
-        <v>-4.438097678672519</v>
+        <v>-4.4380633753483245</v>
       </c>
       <c r="I25">
         <f t="shared" si="2"/>
-        <v>1.168035642343278E-2</v>
+        <v>1.1680752425091831E-2</v>
       </c>
       <c r="J25">
         <f t="shared" si="3"/>
@@ -1542,11 +1542,11 @@
       </c>
       <c r="L25">
         <f t="shared" si="5"/>
-        <v>0.98831964357656721</v>
+        <v>0.98831924757490819</v>
       </c>
       <c r="M25">
         <f t="shared" si="6"/>
-        <v>1.1749107670270341E-2</v>
+        <v>1.1749508352115459E-2</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -1573,11 +1573,11 @@
       </c>
       <c r="H26">
         <f t="shared" si="1"/>
-        <v>-2.5297965900123254</v>
+        <v>-2.5296651839549043</v>
       </c>
       <c r="I26">
         <f t="shared" si="2"/>
-        <v>7.379554842215845E-2</v>
+        <v>7.3804530498398441E-2</v>
       </c>
       <c r="J26">
         <f t="shared" si="3"/>
@@ -1589,11 +1589,11 @@
       </c>
       <c r="L26">
         <f t="shared" si="5"/>
-        <v>0.92620445157784159</v>
+        <v>0.92619546950160159</v>
       </c>
       <c r="M26">
         <f t="shared" si="6"/>
-        <v>7.6660278665625969E-2</v>
+        <v>7.6669976437837975E-2</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -1620,11 +1620,11 @@
       </c>
       <c r="H27">
         <f t="shared" si="1"/>
-        <v>-4.1744615985689864</v>
+        <v>-4.1743942434294787</v>
       </c>
       <c r="I27">
         <f t="shared" si="2"/>
-        <v>1.5150406062980175E-2</v>
+        <v>1.515141109316641E-2</v>
       </c>
       <c r="J27">
         <f t="shared" si="3"/>
@@ -1636,11 +1636,11 @@
       </c>
       <c r="L27">
         <f t="shared" si="5"/>
-        <v>0.98484959393701987</v>
+        <v>0.98484858890683358</v>
       </c>
       <c r="M27">
         <f t="shared" si="6"/>
-        <v>1.5266345979986978E-2</v>
+        <v>1.5267366471547614E-2</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -1667,11 +1667,11 @@
       </c>
       <c r="H28">
         <f t="shared" si="1"/>
-        <v>0.56667643265835821</v>
+        <v>0.56665871508496046</v>
       </c>
       <c r="I28">
         <f t="shared" si="2"/>
-        <v>0.63799592618938106</v>
+        <v>0.63799183417957395</v>
       </c>
       <c r="J28">
         <f t="shared" si="3"/>
@@ -1683,11 +1683,11 @@
       </c>
       <c r="L28">
         <f t="shared" si="5"/>
-        <v>0.36200407381061894</v>
+        <v>0.36200816582042605</v>
       </c>
       <c r="M28">
         <f t="shared" si="6"/>
-        <v>1.0160998135991932</v>
+        <v>1.0160885098957939</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -1714,11 +1714,11 @@
       </c>
       <c r="H29">
         <f t="shared" si="1"/>
-        <v>-3.5749128139799362</v>
+        <v>-3.5749195494792581</v>
       </c>
       <c r="I29">
         <f t="shared" si="2"/>
-        <v>2.7254262104268841E-2</v>
+        <v>2.7254083536867403E-2</v>
       </c>
       <c r="J29">
         <f t="shared" si="3"/>
@@ -1730,11 +1730,11 @@
       </c>
       <c r="L29">
         <f t="shared" si="5"/>
-        <v>0.97274573789573116</v>
+        <v>0.97274591646313258</v>
       </c>
       <c r="M29">
         <f t="shared" si="6"/>
-        <v>2.7632548627220772E-2</v>
+        <v>2.7632365056758239E-2</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -1761,11 +1761,11 @@
       </c>
       <c r="H30">
         <f t="shared" si="1"/>
-        <v>-5.8121444865282301</v>
+        <v>-5.8120860132257004</v>
       </c>
       <c r="I30">
         <f t="shared" si="2"/>
-        <v>2.9820895545862869E-3</v>
+        <v>2.9822634122688512E-3</v>
       </c>
       <c r="J30">
         <f t="shared" si="3"/>
@@ -1777,11 +1777,11 @@
       </c>
       <c r="L30">
         <f t="shared" si="5"/>
-        <v>0.99701791044541377</v>
+        <v>0.99701773658773118</v>
       </c>
       <c r="M30">
         <f t="shared" si="6"/>
-        <v>2.9865448432264611E-3</v>
+        <v>2.9867192209341439E-3</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -1808,11 +1808,11 @@
       </c>
       <c r="H31">
         <f t="shared" si="1"/>
-        <v>-2.0591594312865276</v>
+        <v>-2.0591439771785502</v>
       </c>
       <c r="I31">
         <f t="shared" si="2"/>
-        <v>0.11313013834736467</v>
+        <v>0.11313168889371708</v>
       </c>
       <c r="J31">
         <f t="shared" si="3"/>
@@ -1824,11 +1824,11 @@
       </c>
       <c r="L31">
         <f t="shared" si="5"/>
-        <v>0.88686986165263537</v>
+        <v>0.88686831110628295</v>
       </c>
       <c r="M31">
         <f t="shared" si="6"/>
-        <v>0.1200570248519031</v>
+        <v>0.12005877318925778</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -1855,11 +1855,11 @@
       </c>
       <c r="H32">
         <f t="shared" si="1"/>
-        <v>-17.184524732493628</v>
+        <v>-17.183917898953098</v>
       </c>
       <c r="I32">
         <f t="shared" si="2"/>
-        <v>3.4423555055220161E-8</v>
+        <v>3.4444450761758989E-8</v>
       </c>
       <c r="J32">
         <f t="shared" si="3"/>
@@ -1871,11 +1871,11 @@
       </c>
       <c r="L32">
         <f t="shared" si="5"/>
-        <v>0.99999996557644499</v>
+        <v>0.99999996555554926</v>
       </c>
       <c r="M32">
         <f t="shared" si="6"/>
-        <v>3.4423555598981438E-8</v>
+        <v>3.4444451329292041E-8</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -1902,11 +1902,11 @@
       </c>
       <c r="H33">
         <f t="shared" si="1"/>
-        <v>0.53576819561314792</v>
+        <v>0.53576893020820116</v>
       </c>
       <c r="I33">
         <f t="shared" si="2"/>
-        <v>0.63082744422910597</v>
+        <v>0.63082761530465603</v>
       </c>
       <c r="J33">
         <f t="shared" si="3"/>
@@ -1918,11 +1918,11 @@
       </c>
       <c r="L33">
         <f t="shared" si="5"/>
-        <v>0.63082744422910597</v>
+        <v>0.63082761530465603</v>
       </c>
       <c r="M33">
         <f t="shared" si="6"/>
-        <v>0.46072291781824587</v>
+        <v>0.46072264662597545</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -1949,11 +1949,11 @@
       </c>
       <c r="H34">
         <f t="shared" si="1"/>
-        <v>-2.3400442491923474</v>
+        <v>-2.3400399318635925</v>
       </c>
       <c r="I34">
         <f t="shared" si="2"/>
-        <v>8.7860368593458776E-2</v>
+        <v>8.7860714588791008E-2</v>
       </c>
       <c r="J34">
         <f t="shared" si="3"/>
@@ -1965,11 +1965,11 @@
       </c>
       <c r="L34">
         <f t="shared" si="5"/>
-        <v>8.7860368593458776E-2</v>
+        <v>8.7860714588791008E-2</v>
       </c>
       <c r="M34">
         <f t="shared" si="6"/>
-        <v>2.4320064452070325</v>
+        <v>2.4320025072011204</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -1996,11 +1996,11 @@
       </c>
       <c r="H35">
         <f t="shared" si="1"/>
-        <v>-3.2437202679868165</v>
+        <v>-3.2436985577178925</v>
       </c>
       <c r="I35">
         <f t="shared" si="2"/>
-        <v>3.7553197456766517E-2</v>
+        <v>3.7553982137913354E-2</v>
       </c>
       <c r="J35">
         <f t="shared" si="3"/>
@@ -2012,11 +2012,11 @@
       </c>
       <c r="L35">
         <f t="shared" si="5"/>
-        <v>0.96244680254323345</v>
+        <v>0.96244601786208661</v>
       </c>
       <c r="M35">
         <f t="shared" si="6"/>
-        <v>3.827648443259745E-2</v>
+        <v>3.8277299731130976E-2</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2043,11 +2043,11 @@
       </c>
       <c r="H36">
         <f t="shared" si="1"/>
-        <v>-12.399661920805205</v>
+        <v>-12.399558799956857</v>
       </c>
       <c r="I36">
         <f t="shared" si="2"/>
-        <v>4.119964377912048E-6</v>
+        <v>4.1203892522896217E-6</v>
       </c>
       <c r="J36">
         <f t="shared" si="3"/>
@@ -2059,11 +2059,11 @@
       </c>
       <c r="L36">
         <f t="shared" si="5"/>
-        <v>0.99999588003562212</v>
+        <v>0.99999587961074776</v>
       </c>
       <c r="M36">
         <f t="shared" si="6"/>
-        <v>4.1199728649565299E-6</v>
+        <v>4.1203977410650129E-6</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2090,11 +2090,11 @@
       </c>
       <c r="H37">
         <f t="shared" si="1"/>
-        <v>-4.2891801903991267</v>
+        <v>-4.2890539508791594</v>
       </c>
       <c r="I37">
         <f t="shared" si="2"/>
-        <v>1.3530577692728071E-2</v>
+        <v>1.3532262778348953E-2</v>
       </c>
       <c r="J37">
         <f t="shared" si="3"/>
@@ -2106,11 +2106,11 @@
       </c>
       <c r="L37">
         <f t="shared" si="5"/>
-        <v>0.98646942230727197</v>
+        <v>0.98646773722165104</v>
       </c>
       <c r="M37">
         <f t="shared" si="6"/>
-        <v>1.3622950140483796E-2</v>
+        <v>1.3624658340476674E-2</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2137,11 +2137,11 @@
       </c>
       <c r="H38">
         <f t="shared" si="1"/>
-        <v>1.822503579638048</v>
+        <v>1.8224776809885737</v>
       </c>
       <c r="I38">
         <f t="shared" si="2"/>
-        <v>0.86086626564291002</v>
+        <v>0.86086316358923598</v>
       </c>
       <c r="J38">
         <f t="shared" si="3"/>
@@ -2153,11 +2153,11 @@
       </c>
       <c r="L38">
         <f t="shared" si="5"/>
-        <v>0.86086626564291002</v>
+        <v>0.86086316358923598</v>
       </c>
       <c r="M38">
         <f t="shared" si="6"/>
-        <v>0.14981611107504939</v>
+        <v>0.14981971449103496</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2184,11 +2184,11 @@
       </c>
       <c r="H39">
         <f t="shared" si="1"/>
-        <v>-0.97238742889466234</v>
+        <v>-0.97238286872823565</v>
       </c>
       <c r="I39">
         <f t="shared" si="2"/>
-        <v>0.27440489283540659</v>
+        <v>0.27440580079670251</v>
       </c>
       <c r="J39">
         <f t="shared" si="3"/>
@@ -2200,11 +2200,11 @@
       </c>
       <c r="L39">
         <f t="shared" si="5"/>
-        <v>0.72559510716459341</v>
+        <v>0.72559419920329749</v>
       </c>
       <c r="M39">
         <f t="shared" si="6"/>
-        <v>0.32076312336189272</v>
+        <v>0.3207643746959426</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2231,11 +2231,11 @@
       </c>
       <c r="H40">
         <f t="shared" si="1"/>
-        <v>-2.2547927805482297</v>
+        <v>-2.2547255730159232</v>
       </c>
       <c r="I40">
         <f t="shared" si="2"/>
-        <v>9.4936850515529136E-2</v>
+        <v>9.4942625402322414E-2</v>
       </c>
       <c r="J40">
         <f t="shared" si="3"/>
@@ -2247,11 +2247,11 @@
       </c>
       <c r="L40">
         <f t="shared" si="5"/>
-        <v>0.90506314948447086</v>
+        <v>0.90505737459767754</v>
       </c>
       <c r="M40">
         <f t="shared" si="6"/>
-        <v>9.9750559280733342E-2</v>
+        <v>9.975693994623766E-2</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2278,11 +2278,11 @@
       </c>
       <c r="H41">
         <f t="shared" si="1"/>
-        <v>-0.65485223094399547</v>
+        <v>-0.6548533885134491</v>
       </c>
       <c r="I41">
         <f t="shared" si="2"/>
-        <v>0.34189693271815075</v>
+        <v>0.34189667226111237</v>
       </c>
       <c r="J41">
         <f t="shared" si="3"/>
@@ -2294,11 +2294,11 @@
       </c>
       <c r="L41">
         <f t="shared" si="5"/>
-        <v>0.65810306728184931</v>
+        <v>0.65810332773888769</v>
       </c>
       <c r="M41">
         <f t="shared" si="6"/>
-        <v>0.41839372271668829</v>
+        <v>0.41839332694739345</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2325,11 +2325,11 @@
       </c>
       <c r="H42">
         <f t="shared" si="1"/>
-        <v>-11.715907045950662</v>
+        <v>-11.715629398901953</v>
       </c>
       <c r="I42">
         <f t="shared" si="2"/>
-        <v>8.1628661331623458E-6</v>
+        <v>8.1651328250033889E-6</v>
       </c>
       <c r="J42">
         <f t="shared" si="3"/>
@@ -2341,11 +2341,11 @@
       </c>
       <c r="L42">
         <f t="shared" si="5"/>
-        <v>0.99999183713386686</v>
+        <v>0.99999183486717502</v>
       </c>
       <c r="M42">
         <f t="shared" si="6"/>
-        <v>8.1628994495164904E-6</v>
+        <v>8.1651661598561419E-6</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2372,11 +2372,11 @@
       </c>
       <c r="H43">
         <f t="shared" si="1"/>
-        <v>-0.4725029272789083</v>
+        <v>-0.47252770691675394</v>
       </c>
       <c r="I43">
         <f t="shared" si="2"/>
-        <v>0.38402400563507583</v>
+        <v>0.3840181440392757</v>
       </c>
       <c r="J43">
         <f t="shared" si="3"/>
@@ -2388,11 +2388,11 @@
       </c>
       <c r="L43">
         <f t="shared" si="5"/>
-        <v>0.61597599436492412</v>
+        <v>0.6159818559607243</v>
       </c>
       <c r="M43">
         <f t="shared" si="6"/>
-        <v>0.48454728639478623</v>
+        <v>0.48453777049162661</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2419,11 +2419,11 @@
       </c>
       <c r="H44">
         <f t="shared" si="1"/>
-        <v>-8.3025366371982052</v>
+        <v>-8.3023131420513572</v>
       </c>
       <c r="I44">
         <f t="shared" si="2"/>
-        <v>2.4782579609872586E-4</v>
+        <v>2.4788117642019516E-4</v>
       </c>
       <c r="J44">
         <f t="shared" si="3"/>
@@ -2435,11 +2435,11 @@
       </c>
       <c r="L44">
         <f t="shared" si="5"/>
-        <v>0.99975217420390128</v>
+        <v>0.99975211882357984</v>
       </c>
       <c r="M44">
         <f t="shared" si="6"/>
-        <v>2.4785650998589495E-4</v>
+        <v>2.4791190403694341E-4</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2466,11 +2466,11 @@
       </c>
       <c r="H45">
         <f t="shared" si="1"/>
-        <v>-13.376774542475225</v>
+        <v>-13.376048236395079</v>
       </c>
       <c r="I45">
         <f t="shared" si="2"/>
-        <v>1.550743455652331E-6</v>
+        <v>1.5518701774279321E-6</v>
       </c>
       <c r="J45">
         <f t="shared" si="3"/>
@@ -2482,11 +2482,11 @@
       </c>
       <c r="L45">
         <f t="shared" si="5"/>
-        <v>0.99999844925654435</v>
+        <v>0.99999844812982253</v>
       </c>
       <c r="M45">
         <f t="shared" si="6"/>
-        <v>1.5507446580510833E-6</v>
+        <v>1.5518713816259268E-6</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2513,11 +2513,11 @@
       </c>
       <c r="H46">
         <f t="shared" si="1"/>
-        <v>-1.7738189840123448</v>
+        <v>-1.7737816377398632</v>
       </c>
       <c r="I46">
         <f t="shared" si="2"/>
-        <v>0.14506804360534478</v>
+        <v>0.14507267547493372</v>
       </c>
       <c r="J46">
         <f t="shared" si="3"/>
@@ -2529,11 +2529,11 @@
       </c>
       <c r="L46">
         <f t="shared" si="5"/>
-        <v>0.85493195639465525</v>
+        <v>0.85492732452506626</v>
       </c>
       <c r="M46">
         <f t="shared" si="6"/>
-        <v>0.15673339637643077</v>
+        <v>0.15673881421360683</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2560,11 +2560,11 @@
       </c>
       <c r="H47">
         <f t="shared" si="1"/>
-        <v>-7.4909986689669585</v>
+        <v>-7.4909108591413851</v>
       </c>
       <c r="I47">
         <f t="shared" si="2"/>
-        <v>5.5777405405454635E-4</v>
+        <v>5.5782300692510355E-4</v>
       </c>
       <c r="J47">
         <f t="shared" si="3"/>
@@ -2576,11 +2576,11 @@
       </c>
       <c r="L47">
         <f t="shared" si="5"/>
-        <v>0.99944222594594545</v>
+        <v>0.99944217699307492</v>
       </c>
       <c r="M47">
         <f t="shared" si="6"/>
-        <v>5.5792966786982724E-4</v>
+        <v>5.5797864806144109E-4</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2607,11 +2607,11 @@
       </c>
       <c r="H48">
         <f t="shared" si="1"/>
-        <v>1.1524904887381555</v>
+        <v>1.1524684085641113</v>
       </c>
       <c r="I48">
         <f t="shared" si="2"/>
-        <v>0.75996552083868463</v>
+        <v>0.75996149299596616</v>
       </c>
       <c r="J48">
         <f t="shared" si="3"/>
@@ -2623,11 +2623,11 @@
       </c>
       <c r="L48">
         <f t="shared" si="5"/>
-        <v>0.75996552083868463</v>
+        <v>0.75996149299596616</v>
       </c>
       <c r="M48">
         <f t="shared" si="6"/>
-        <v>0.27448221404840839</v>
+        <v>0.27448751409595251</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -2654,11 +2654,11 @@
       </c>
       <c r="H49">
         <f t="shared" si="1"/>
-        <v>0.67208631024366117</v>
+        <v>0.67204847241083643</v>
       </c>
       <c r="I49">
         <f t="shared" si="2"/>
-        <v>0.66197016144578769</v>
+        <v>0.6619616945860064</v>
       </c>
       <c r="J49">
         <f t="shared" si="3"/>
@@ -2670,11 +2670,11 @@
       </c>
       <c r="L49">
         <f t="shared" si="5"/>
-        <v>0.66197016144578769</v>
+        <v>0.6619616945860064</v>
       </c>
       <c r="M49">
         <f t="shared" si="6"/>
-        <v>0.41253479740569415</v>
+        <v>0.41254758788239859</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2701,11 +2701,11 @@
       </c>
       <c r="H50">
         <f t="shared" si="1"/>
-        <v>-15.555844351759191</v>
+        <v>-15.555693919596234</v>
       </c>
       <c r="I50">
         <f t="shared" si="2"/>
-        <v>1.7546179198654798E-7</v>
+        <v>1.7548818906423584E-7</v>
       </c>
       <c r="J50">
         <f t="shared" si="3"/>
@@ -2717,11 +2717,11 @@
       </c>
       <c r="L50">
         <f t="shared" si="5"/>
-        <v>0.99999982453820802</v>
+        <v>0.99999982451181091</v>
       </c>
       <c r="M50">
         <f t="shared" si="6"/>
-        <v>1.7546180737810995E-7</v>
+        <v>1.7548820448946467E-7</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -2748,11 +2748,11 @@
       </c>
       <c r="H51">
         <f t="shared" si="1"/>
-        <v>-7.4573719478630451E-2</v>
+        <v>-7.4579683323226398E-2</v>
       </c>
       <c r="I51">
         <f t="shared" si="2"/>
-        <v>0.48136520537653665</v>
+        <v>0.48136371648653142</v>
       </c>
       <c r="J51">
         <f t="shared" si="3"/>
@@ -2764,11 +2764,11 @@
       </c>
       <c r="L51">
         <f t="shared" si="5"/>
-        <v>0.48136520537653665</v>
+        <v>0.48136371648653142</v>
       </c>
       <c r="M51">
         <f t="shared" si="6"/>
-        <v>0.73112903423342857</v>
+        <v>0.7311321272951854</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -2795,11 +2795,11 @@
       </c>
       <c r="H52">
         <f t="shared" si="1"/>
-        <v>-0.67851169572789782</v>
+        <v>-0.67849865215540728</v>
       </c>
       <c r="I52">
         <f t="shared" si="2"/>
-        <v>0.33659355759570736</v>
+        <v>0.33659647020992939</v>
       </c>
       <c r="J52">
         <f t="shared" si="3"/>
@@ -2811,11 +2811,11 @@
       </c>
       <c r="L52">
         <f t="shared" si="5"/>
-        <v>0.6634064424042927</v>
+        <v>0.66340352979007067</v>
       </c>
       <c r="M52">
         <f t="shared" si="6"/>
-        <v>0.41036744132506203</v>
+        <v>0.4103718317265258</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -2842,11 +2842,11 @@
       </c>
       <c r="H53">
         <f t="shared" si="1"/>
-        <v>-9.1542517653006215</v>
+        <v>-9.154047277513488</v>
       </c>
       <c r="I53">
         <f t="shared" si="2"/>
-        <v>1.0575795388251438E-4</v>
+        <v>1.057795800159289E-4</v>
       </c>
       <c r="J53">
         <f t="shared" si="3"/>
@@ -2858,11 +2858,11 @@
       </c>
       <c r="L53">
         <f t="shared" si="5"/>
-        <v>0.99989424204611743</v>
+        <v>0.9998942204199841</v>
       </c>
       <c r="M53">
         <f t="shared" si="6"/>
-        <v>1.0576354664929604E-4</v>
+        <v>1.0578517507023602E-4</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -2889,11 +2889,11 @@
       </c>
       <c r="H54">
         <f t="shared" si="1"/>
-        <v>-6.4968597049501726</v>
+        <v>-6.4967284620317525</v>
       </c>
       <c r="I54">
         <f t="shared" si="2"/>
-        <v>1.5058967114309726E-3</v>
+        <v>1.5060940649987264E-3</v>
       </c>
       <c r="J54">
         <f t="shared" si="3"/>
@@ -2905,11 +2905,11 @@
       </c>
       <c r="L54">
         <f t="shared" si="5"/>
-        <v>0.99849410328856902</v>
+        <v>0.99849390593500131</v>
       </c>
       <c r="M54">
         <f t="shared" si="6"/>
-        <v>1.5070317134907463E-3</v>
+        <v>1.5072293647202966E-3</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -2936,11 +2936,11 @@
       </c>
       <c r="H55">
         <f t="shared" si="1"/>
-        <v>-0.92767224222981071</v>
+        <v>-0.9276131263671763</v>
       </c>
       <c r="I55">
         <f t="shared" si="2"/>
-        <v>0.28339720462909601</v>
+        <v>0.28340921022309118</v>
       </c>
       <c r="J55">
         <f t="shared" si="3"/>
@@ -2952,11 +2952,11 @@
       </c>
       <c r="L55">
         <f t="shared" si="5"/>
-        <v>0.71660279537090399</v>
+        <v>0.71659078977690882</v>
       </c>
       <c r="M55">
         <f t="shared" si="6"/>
-        <v>0.33323357323847896</v>
+        <v>0.33325032686355777</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -2983,11 +2983,11 @@
       </c>
       <c r="H56">
         <f t="shared" si="1"/>
-        <v>-0.56859155774616088</v>
+        <v>-0.56859319689863774</v>
       </c>
       <c r="I56">
         <f t="shared" si="2"/>
-        <v>0.36156187902571202</v>
+        <v>0.3615615006522217</v>
       </c>
       <c r="J56">
         <f t="shared" si="3"/>
@@ -2999,11 +2999,11 @@
       </c>
       <c r="L56">
         <f t="shared" si="5"/>
-        <v>0.63843812097428798</v>
+        <v>0.6384384993477783</v>
       </c>
       <c r="M56">
         <f t="shared" si="6"/>
-        <v>0.44873052132371755</v>
+        <v>0.44872992866897821</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -3030,11 +3030,11 @@
       </c>
       <c r="H57">
         <f t="shared" si="1"/>
-        <v>-2.4612250296484284E-2</v>
+        <v>-2.4556838599748332E-2</v>
       </c>
       <c r="I57">
         <f t="shared" si="2"/>
-        <v>0.49384724801513225</v>
+        <v>0.49386109884634982</v>
       </c>
       <c r="J57">
         <f t="shared" si="3"/>
@@ -3046,11 +3046,11 @@
       </c>
       <c r="L57">
         <f t="shared" si="5"/>
-        <v>0.50615275198486775</v>
+        <v>0.50613890115365012</v>
       </c>
       <c r="M57">
         <f t="shared" si="6"/>
-        <v>0.68091677385867166</v>
+        <v>0.68094413915636143</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -3077,11 +3077,11 @@
       </c>
       <c r="H58">
         <f t="shared" si="1"/>
-        <v>0.50933804950144568</v>
+        <v>0.50931551724554991</v>
       </c>
       <c r="I58">
         <f t="shared" si="2"/>
-        <v>0.62465128500362077</v>
+        <v>0.62464600202971343</v>
       </c>
       <c r="J58">
         <f t="shared" si="3"/>
@@ -3093,11 +3093,11 @@
       </c>
       <c r="L58">
         <f t="shared" si="5"/>
-        <v>0.62465128500362077</v>
+        <v>0.62464600202971343</v>
       </c>
       <c r="M58">
         <f t="shared" si="6"/>
-        <v>0.47056172894861314</v>
+        <v>0.47057018646142806</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -3124,11 +3124,11 @@
       </c>
       <c r="H59">
         <f t="shared" si="1"/>
-        <v>0.28795200839033086</v>
+        <v>0.28796137526565158</v>
       </c>
       <c r="I59">
         <f t="shared" si="2"/>
-        <v>0.57149467691404221</v>
+        <v>0.57149697075265771</v>
       </c>
       <c r="J59">
         <f t="shared" si="3"/>
@@ -3140,11 +3140,11 @@
       </c>
       <c r="L59">
         <f t="shared" si="5"/>
-        <v>0.57149467691404221</v>
+        <v>0.57149697075265771</v>
       </c>
       <c r="M59">
         <f t="shared" si="6"/>
-        <v>0.55950011002679612</v>
+        <v>0.55949609628160346</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -3171,11 +3171,11 @@
       </c>
       <c r="H60">
         <f t="shared" si="1"/>
-        <v>-4.0790634496982756</v>
+        <v>-4.0790287587919298</v>
       </c>
       <c r="I60">
         <f t="shared" si="2"/>
-        <v>1.6641675564812042E-2</v>
+        <v>1.6642243281654253E-2</v>
       </c>
       <c r="J60">
         <f t="shared" si="3"/>
@@ -3187,11 +3187,11 @@
       </c>
       <c r="L60">
         <f t="shared" si="5"/>
-        <v>0.983358324435188</v>
+        <v>0.9833577567183458</v>
       </c>
       <c r="M60">
         <f t="shared" si="6"/>
-        <v>1.6781703959476531E-2</v>
+        <v>1.6782281284132231E-2</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -3218,11 +3218,11 @@
       </c>
       <c r="H61">
         <f t="shared" si="1"/>
-        <v>-0.27445713586546461</v>
+        <v>-0.274463469239703</v>
       </c>
       <c r="I61">
         <f t="shared" si="2"/>
-        <v>0.43181320360825098</v>
+        <v>0.43181164971200087</v>
       </c>
       <c r="J61">
         <f t="shared" si="3"/>
@@ -3234,11 +3234,11 @@
       </c>
       <c r="L61">
         <f t="shared" si="5"/>
-        <v>0.56818679639174907</v>
+        <v>0.56818835028799919</v>
       </c>
       <c r="M61">
         <f t="shared" si="6"/>
-        <v>0.56530504743896504</v>
+        <v>0.56530231260926622</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -3265,11 +3265,11 @@
       </c>
       <c r="H62">
         <f t="shared" si="1"/>
-        <v>0.72014087320388009</v>
+        <v>0.72011042540129289</v>
       </c>
       <c r="I62">
         <f t="shared" si="2"/>
-        <v>0.67263803755334406</v>
+        <v>0.67263133303047606</v>
       </c>
       <c r="J62">
         <f t="shared" si="3"/>
@@ -3281,11 +3281,11 @@
       </c>
       <c r="L62">
         <f t="shared" si="5"/>
-        <v>0.67263803755334406</v>
+        <v>0.67263133303047606</v>
       </c>
       <c r="M62">
         <f t="shared" si="6"/>
-        <v>0.3965479282667862</v>
+        <v>0.39655789582126211</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -3312,11 +3312,11 @@
       </c>
       <c r="H63">
         <f t="shared" si="1"/>
-        <v>1.2473738615860412</v>
+        <v>1.2473535525421089</v>
       </c>
       <c r="I63">
         <f t="shared" si="2"/>
-        <v>0.77684493301404334</v>
+        <v>0.77684141228169412</v>
       </c>
       <c r="J63">
         <f t="shared" si="3"/>
@@ -3328,11 +3328,11 @@
       </c>
       <c r="L63">
         <f t="shared" si="5"/>
-        <v>0.77684493301404334</v>
+        <v>0.77684141228169412</v>
       </c>
       <c r="M63">
         <f t="shared" si="6"/>
-        <v>0.25251451994201113</v>
+        <v>0.25251905204382163</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -3359,11 +3359,11 @@
       </c>
       <c r="H64">
         <f t="shared" si="1"/>
-        <v>-7.7611644922235712E-2</v>
+        <v>-7.7620230636909149E-2</v>
       </c>
       <c r="I64">
         <f t="shared" si="2"/>
-        <v>0.48060682246833125</v>
+        <v>0.48060467926906697</v>
       </c>
       <c r="J64">
         <f t="shared" si="3"/>
@@ -3375,11 +3375,11 @@
       </c>
       <c r="L64">
         <f t="shared" si="5"/>
-        <v>0.51939317753166869</v>
+        <v>0.51939532073093297</v>
       </c>
       <c r="M64">
         <f t="shared" si="6"/>
-        <v>0.65509411512726501</v>
+        <v>0.65508998878341751</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -3406,11 +3406,11 @@
       </c>
       <c r="H65">
         <f t="shared" si="1"/>
-        <v>0.3974383292579402</v>
+        <v>0.39745277145614555</v>
       </c>
       <c r="I65">
         <f t="shared" si="2"/>
-        <v>0.59807203589321212</v>
+        <v>0.59807550753098992</v>
       </c>
       <c r="J65">
         <f t="shared" si="3"/>
@@ -3422,11 +3422,11 @@
       </c>
       <c r="L65">
         <f t="shared" si="5"/>
-        <v>0.40192796410678788</v>
+        <v>0.40192449246901008</v>
       </c>
       <c r="M65">
         <f t="shared" si="6"/>
-        <v>0.91148240018444604</v>
+        <v>0.91149103768439876</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -3453,11 +3453,11 @@
       </c>
       <c r="H66">
         <f t="shared" si="1"/>
-        <v>0.52186605306766776</v>
+        <v>0.52190809931173376</v>
       </c>
       <c r="I66">
         <f t="shared" si="2"/>
-        <v>0.62758400830021799</v>
+        <v>0.62759383539324487</v>
       </c>
       <c r="J66">
         <f t="shared" si="3"/>
@@ -3469,11 +3469,11 @@
       </c>
       <c r="L66">
         <f t="shared" si="5"/>
-        <v>0.62758400830021799</v>
+        <v>0.62759383539324487</v>
       </c>
       <c r="M66">
         <f t="shared" si="6"/>
-        <v>0.46587773916775521</v>
+        <v>0.46586208068067075</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -3500,11 +3500,11 @@
       </c>
       <c r="H67">
         <f t="shared" si="1"/>
-        <v>2.3042959605992617</v>
+        <v>2.3042416767857419</v>
       </c>
       <c r="I67">
         <f t="shared" si="2"/>
-        <v>0.90923220418091633</v>
+        <v>0.90922772409238151</v>
       </c>
       <c r="J67">
         <f t="shared" si="3"/>
@@ -3516,11 +3516,11 @@
       </c>
       <c r="L67">
         <f t="shared" si="5"/>
-        <v>0.90923220418091633</v>
+        <v>0.90922772409238151</v>
       </c>
       <c r="M67">
         <f t="shared" si="6"/>
-        <v>9.5154767282468522E-2</v>
+        <v>9.5159694626167621E-2</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -3547,11 +3547,11 @@
       </c>
       <c r="H68">
         <f t="shared" si="1"/>
-        <v>1.7330258595915988</v>
+        <v>1.7329940952206213</v>
       </c>
       <c r="I68">
         <f t="shared" si="2"/>
-        <v>0.84979905179102444</v>
+        <v>0.84979499732186259</v>
       </c>
       <c r="J68">
         <f t="shared" si="3"/>
@@ -3563,11 +3563,11 @@
       </c>
       <c r="L68">
         <f t="shared" si="5"/>
-        <v>0.84979905179102444</v>
+        <v>0.84979499732186259</v>
       </c>
       <c r="M68">
         <f t="shared" si="6"/>
-        <v>0.16275536710456137</v>
+        <v>0.16276013820759505</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -3594,11 +3594,11 @@
       </c>
       <c r="H69">
         <f t="shared" si="1"/>
-        <v>1.3482892246601335</v>
+        <v>1.3482544701921544</v>
       </c>
       <c r="I69">
         <f t="shared" si="2"/>
-        <v>0.79384979662764998</v>
+        <v>0.79384410892104784</v>
       </c>
       <c r="J69">
         <f t="shared" si="3"/>
@@ -3610,11 +3610,11 @@
       </c>
       <c r="L69">
         <f t="shared" si="5"/>
-        <v>0.20615020337235002</v>
+        <v>0.20615589107895216</v>
       </c>
       <c r="M69">
         <f t="shared" si="6"/>
-        <v>1.5791502333036413</v>
+        <v>1.5791226435751409</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -3641,11 +3641,11 @@
       </c>
       <c r="H70">
         <f t="shared" si="1"/>
-        <v>-1.6645767106944183</v>
+        <v>-1.6644847210567031</v>
       </c>
       <c r="I70">
         <f t="shared" si="2"/>
-        <v>0.15914858424908765</v>
+        <v>0.15916089471712602</v>
       </c>
       <c r="J70">
         <f t="shared" si="3"/>
@@ -3657,11 +3657,11 @@
       </c>
       <c r="L70">
         <f t="shared" si="5"/>
-        <v>0.84085141575091238</v>
+        <v>0.84083910528287398</v>
       </c>
       <c r="M70">
         <f t="shared" si="6"/>
-        <v>0.17334031030080091</v>
+        <v>0.17335495088762073</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -3688,11 +3688,11 @@
       </c>
       <c r="H71">
         <f t="shared" ref="H71:H92" si="7">$G$4+SUMPRODUCT($B$4:$F$4, B71:F71)</f>
-        <v>-19.833703745058973</v>
+        <v>-19.833499520906663</v>
       </c>
       <c r="I71">
         <f t="shared" ref="I71:I92" si="8">1/(1+EXP(0-H71))</f>
-        <v>2.4340635157862035E-9</v>
+        <v>2.4345606611059843E-9</v>
       </c>
       <c r="J71">
         <f t="shared" ref="J71:J92" si="9">IF(I71&lt;=0.5,0,1)</f>
@@ -3704,11 +3704,11 @@
       </c>
       <c r="L71">
         <f t="shared" ref="L71:L92" si="11">IF(G71=1,I71,1-I71)</f>
-        <v>0.99999999756593649</v>
+        <v>0.99999999756543934</v>
       </c>
       <c r="M71">
-        <f t="shared" ref="M71:M92" si="12">-LN(IF(L71&lt;=10^(-10), 10^(-10), L71))</f>
-        <v>2.4340635092692598E-9</v>
+        <f t="shared" ref="M71:M92" si="12">IF(L71=0, 1000000, -LN(L71))</f>
+        <v>2.4345606671408972E-9</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -3735,11 +3735,11 @@
       </c>
       <c r="H72">
         <f t="shared" si="7"/>
-        <v>2.3753391023712509</v>
+        <v>2.3753039525252135</v>
       </c>
       <c r="I72">
         <f t="shared" si="8"/>
-        <v>0.91492735283901783</v>
+        <v>0.91492461690059002</v>
       </c>
       <c r="J72">
         <f t="shared" si="9"/>
@@ -3751,11 +3751,11 @@
       </c>
       <c r="L72">
         <f t="shared" si="11"/>
-        <v>0.91492735283901783</v>
+        <v>0.91492461690059002</v>
       </c>
       <c r="M72">
         <f t="shared" si="12"/>
-        <v>8.8910612662981559E-2</v>
+        <v>8.8913603001515004E-2</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -3782,11 +3782,11 @@
       </c>
       <c r="H73">
         <f t="shared" si="7"/>
-        <v>-53.328664321983027</v>
+        <v>-53.328082486112933</v>
       </c>
       <c r="I73">
         <f t="shared" si="8"/>
-        <v>6.9128217361518024E-24</v>
+        <v>6.9168450341374988E-24</v>
       </c>
       <c r="J73">
         <f t="shared" si="9"/>
@@ -3829,11 +3829,11 @@
       </c>
       <c r="H74">
         <f t="shared" si="7"/>
-        <v>-0.52795798662527904</v>
+        <v>-0.52794643754044923</v>
       </c>
       <c r="I74">
         <f t="shared" si="8"/>
-        <v>0.37099328102841744</v>
+        <v>0.37099597609529883</v>
       </c>
       <c r="J74">
         <f t="shared" si="9"/>
@@ -3845,11 +3845,11 @@
       </c>
       <c r="L74">
         <f t="shared" si="11"/>
-        <v>0.62900671897158256</v>
+        <v>0.62900402390470123</v>
       </c>
       <c r="M74">
         <f t="shared" si="12"/>
-        <v>0.46361334034895119</v>
+        <v>0.46361762499738779</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -3876,11 +3876,11 @@
       </c>
       <c r="H75">
         <f t="shared" si="7"/>
-        <v>-6.7022660622318968</v>
+        <v>-6.7022061883600212</v>
       </c>
       <c r="I75">
         <f t="shared" si="8"/>
-        <v>1.2266192949773745E-3</v>
+        <v>1.2266926495285613E-3</v>
       </c>
       <c r="J75">
         <f t="shared" si="9"/>
@@ -3892,11 +3892,11 @@
       </c>
       <c r="L75">
         <f t="shared" si="11"/>
-        <v>0.99877338070502264</v>
+        <v>0.99877330735047143</v>
       </c>
       <c r="M75">
         <f t="shared" si="12"/>
-        <v>1.2273722081796493E-3</v>
+        <v>1.2274456528221698E-3</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -3923,11 +3923,11 @@
       </c>
       <c r="H76">
         <f t="shared" si="7"/>
-        <v>0.16520219498135535</v>
+        <v>0.16518746302555787</v>
       </c>
       <c r="I76">
         <f t="shared" si="8"/>
-        <v>0.54120687398531675</v>
+        <v>0.54120321600910304</v>
       </c>
       <c r="J76">
         <f t="shared" si="9"/>
@@ -3939,11 +3939,11 @@
       </c>
       <c r="L76">
         <f t="shared" si="11"/>
-        <v>0.45879312601468325</v>
+        <v>0.45879678399089696</v>
       </c>
       <c r="M76">
         <f t="shared" si="12"/>
-        <v>0.77915587637036543</v>
+        <v>0.77914790336156525</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -3970,11 +3970,11 @@
       </c>
       <c r="H77">
         <f t="shared" si="7"/>
-        <v>2.2964282797524245</v>
+        <v>2.2963839637173269</v>
       </c>
       <c r="I77">
         <f t="shared" si="8"/>
-        <v>0.90858079834759276</v>
+        <v>0.90857711731434598</v>
       </c>
       <c r="J77">
         <f t="shared" si="9"/>
@@ -3986,11 +3986,11 @@
       </c>
       <c r="L77">
         <f t="shared" si="11"/>
-        <v>0.90858079834759276</v>
+        <v>0.90857711731434598</v>
       </c>
       <c r="M77">
         <f t="shared" si="12"/>
-        <v>9.5871459109735921E-2</v>
+        <v>9.5875510527848845E-2</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -4017,11 +4017,11 @@
       </c>
       <c r="H78">
         <f t="shared" si="7"/>
-        <v>0.81527430856673799</v>
+        <v>0.8152644144797927</v>
       </c>
       <c r="I78">
         <f t="shared" si="8"/>
-        <v>0.69323228722958841</v>
+        <v>0.69323018313634011</v>
       </c>
       <c r="J78">
         <f t="shared" si="9"/>
@@ -4033,11 +4033,11 @@
       </c>
       <c r="L78">
         <f t="shared" si="11"/>
-        <v>0.69323228722958841</v>
+        <v>0.69323018313634011</v>
       </c>
       <c r="M78">
         <f t="shared" si="12"/>
-        <v>0.3663901451486356</v>
+        <v>0.36639318034546675</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -4064,11 +4064,11 @@
       </c>
       <c r="H79">
         <f t="shared" si="7"/>
-        <v>4.6323913678566697E-2</v>
+        <v>4.6324511294030479E-2</v>
       </c>
       <c r="I79">
         <f t="shared" si="8"/>
-        <v>0.51157890789068583</v>
+        <v>0.51157905721442776</v>
       </c>
       <c r="J79">
         <f t="shared" si="9"/>
@@ -4080,11 +4080,11 @@
       </c>
       <c r="L79">
         <f t="shared" si="11"/>
-        <v>0.51157890789068583</v>
+        <v>0.51157905721442776</v>
       </c>
       <c r="M79">
         <f t="shared" si="12"/>
-        <v>0.67025343786250824</v>
+        <v>0.67025314597455532</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -4111,11 +4111,11 @@
       </c>
       <c r="H80">
         <f t="shared" si="7"/>
-        <v>-7.4530721605649282</v>
+        <v>-7.4529788812042597</v>
       </c>
       <c r="I80">
         <f t="shared" si="8"/>
-        <v>5.7932226244150804E-4</v>
+        <v>5.7937627246193609E-4</v>
       </c>
       <c r="J80">
         <f t="shared" si="9"/>
@@ -4127,11 +4127,11 @@
       </c>
       <c r="L80">
         <f t="shared" si="11"/>
-        <v>0.99942067773755849</v>
+        <v>0.99942062372753804</v>
       </c>
       <c r="M80">
         <f t="shared" si="12"/>
-        <v>5.7949013442116734E-4</v>
+        <v>5.7954417575042797E-4</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -4158,11 +4158,11 @@
       </c>
       <c r="H81">
         <f t="shared" si="7"/>
-        <v>-3.2142574537657609</v>
+        <v>-3.2141692837722537</v>
       </c>
       <c r="I81">
         <f t="shared" si="8"/>
-        <v>3.8632700747156794E-2</v>
+        <v>3.8635975532900158E-2</v>
       </c>
       <c r="J81">
         <f t="shared" si="9"/>
@@ -4174,11 +4174,11 @@
       </c>
       <c r="L81">
         <f t="shared" si="11"/>
-        <v>0.96136729925284325</v>
+        <v>0.96136402446709979</v>
       </c>
       <c r="M81">
         <f t="shared" si="12"/>
-        <v>3.9398737775767113E-2</v>
+        <v>3.9402144165108219E-2</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -4205,11 +4205,11 @@
       </c>
       <c r="H82">
         <f t="shared" si="7"/>
-        <v>-4.3987461963118681</v>
+        <v>-4.3986564989994221</v>
       </c>
       <c r="I82">
         <f t="shared" si="8"/>
-        <v>1.2143466420288981E-2</v>
+        <v>1.2144542476573083E-2</v>
       </c>
       <c r="J82">
         <f t="shared" si="9"/>
@@ -4221,11 +4221,11 @@
       </c>
       <c r="L82">
         <f t="shared" si="11"/>
-        <v>0.98785653357971104</v>
+        <v>0.98785545752342696</v>
       </c>
       <c r="M82">
         <f t="shared" si="12"/>
-        <v>1.2217800705524234E-2</v>
+        <v>1.2218889990084861E-2</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -4252,11 +4252,11 @@
       </c>
       <c r="H83">
         <f t="shared" si="7"/>
-        <v>-12.105380870646115</v>
+        <v>-12.105247512725235</v>
       </c>
       <c r="I83">
         <f t="shared" si="8"/>
-        <v>5.5296479831316006E-6</v>
+        <v>5.5303854505840724E-6</v>
       </c>
       <c r="J83">
         <f t="shared" si="9"/>
@@ -4268,11 +4268,11 @@
       </c>
       <c r="L83">
         <f t="shared" si="11"/>
-        <v>0.99999447035201683</v>
+        <v>0.99999446961454941</v>
       </c>
       <c r="M83">
         <f t="shared" si="12"/>
-        <v>5.5296632717310064E-6</v>
+        <v>5.5304007432297004E-6</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
@@ -4299,11 +4299,11 @@
       </c>
       <c r="H84">
         <f t="shared" si="7"/>
-        <v>-5.7239099652468992</v>
+        <v>-5.7237932693070679</v>
       </c>
       <c r="I84">
         <f t="shared" si="8"/>
-        <v>3.2562744206517109E-3</v>
+        <v>3.2566531992474219E-3</v>
       </c>
       <c r="J84">
         <f t="shared" si="9"/>
@@ -4315,11 +4315,11 @@
       </c>
       <c r="L84">
         <f t="shared" si="11"/>
-        <v>0.99674372557934832</v>
+        <v>0.99674334680075261</v>
       </c>
       <c r="M84">
         <f t="shared" si="12"/>
-        <v>3.2615876194939451E-3</v>
+        <v>3.2619676355983471E-3</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -4346,11 +4346,11 @@
       </c>
       <c r="H85">
         <f t="shared" si="7"/>
-        <v>0.1219262401952248</v>
+        <v>0.12191720072128298</v>
       </c>
       <c r="I85">
         <f t="shared" si="8"/>
-        <v>0.53044385450781817</v>
+        <v>0.53044160301675314</v>
       </c>
       <c r="J85">
         <f t="shared" si="9"/>
@@ -4362,11 +4362,11 @@
       </c>
       <c r="L85">
         <f t="shared" si="11"/>
-        <v>0.46955614549218183</v>
+        <v>0.46955839698324686</v>
       </c>
       <c r="M85">
         <f t="shared" si="12"/>
-        <v>0.75596740177077348</v>
+        <v>0.75596260684754912</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -4393,11 +4393,11 @@
       </c>
       <c r="H86">
         <f t="shared" si="7"/>
-        <v>0.28097598999409223</v>
+        <v>0.28097571448397218</v>
       </c>
       <c r="I86">
         <f t="shared" si="8"/>
-        <v>0.56978548462998635</v>
+        <v>0.56978541709419306</v>
       </c>
       <c r="J86">
         <f t="shared" si="9"/>
@@ -4409,11 +4409,11 @@
       </c>
       <c r="L86">
         <f t="shared" si="11"/>
-        <v>0.43021451537001365</v>
+        <v>0.43021458290580694</v>
       </c>
       <c r="M86">
         <f t="shared" si="12"/>
-        <v>0.84347132173675066</v>
+        <v>0.84347116475509243</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -4440,11 +4440,11 @@
       </c>
       <c r="H87">
         <f t="shared" si="7"/>
-        <v>-3.9365646113229316</v>
+        <v>-3.93643630092709</v>
       </c>
       <c r="I87">
         <f t="shared" si="8"/>
-        <v>1.9141590954469254E-2</v>
+        <v>1.9144000155230215E-2</v>
       </c>
       <c r="J87">
         <f t="shared" si="9"/>
@@ -4456,11 +4456,11 @@
       </c>
       <c r="L87">
         <f t="shared" si="11"/>
-        <v>1.9141590954469254E-2</v>
+        <v>1.9144000155230215E-2</v>
       </c>
       <c r="M87">
         <f t="shared" si="12"/>
-        <v>3.9558917744436775</v>
+        <v>3.955765920267508</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -4487,11 +4487,11 @@
       </c>
       <c r="H88">
         <f t="shared" si="7"/>
-        <v>-0.66329884175105125</v>
+        <v>-0.66328468977474841</v>
       </c>
       <c r="I88">
         <f t="shared" si="8"/>
-        <v>0.3399989622986952</v>
+        <v>0.34000213800466894</v>
       </c>
       <c r="J88">
         <f t="shared" si="9"/>
@@ -4503,11 +4503,11 @@
       </c>
       <c r="L88">
         <f t="shared" si="11"/>
-        <v>0.3399989622986952</v>
+        <v>0.34000213800466894</v>
       </c>
       <c r="M88">
         <f t="shared" si="12"/>
-        <v>1.0788127134392487</v>
+        <v>1.0788033731426747</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -4534,11 +4534,11 @@
       </c>
       <c r="H89">
         <f t="shared" si="7"/>
-        <v>1.7267637349333524</v>
+        <v>1.7267191722579933</v>
       </c>
       <c r="I89">
         <f t="shared" si="8"/>
-        <v>0.84899799821772026</v>
+        <v>0.84899228517618719</v>
       </c>
       <c r="J89">
         <f t="shared" si="9"/>
@@ -4550,11 +4550,11 @@
       </c>
       <c r="L89">
         <f t="shared" si="11"/>
-        <v>0.84899799821772026</v>
+        <v>0.84899228517618719</v>
       </c>
       <c r="M89">
         <f t="shared" si="12"/>
-        <v>0.16369845048544185</v>
+        <v>0.16370517966591946</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -4581,11 +4581,11 @@
       </c>
       <c r="H90">
         <f t="shared" si="7"/>
-        <v>-24.788000879053577</v>
+        <v>-24.787695656700652</v>
       </c>
       <c r="I90">
         <f t="shared" si="8"/>
-        <v>1.7167537345277786E-11</v>
+        <v>1.7172778061171271E-11</v>
       </c>
       <c r="J90">
         <f t="shared" si="9"/>
@@ -4597,11 +4597,11 @@
       </c>
       <c r="L90">
         <f t="shared" si="11"/>
-        <v>0.99999999998283251</v>
+        <v>0.99999999998282718</v>
       </c>
       <c r="M90">
         <f t="shared" si="12"/>
-        <v>1.7167489652228619E-11</v>
+        <v>1.717281872274691E-11</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -4628,11 +4628,11 @@
       </c>
       <c r="H91">
         <f t="shared" si="7"/>
-        <v>-3.2933474118656818</v>
+        <v>-3.2932812337692976</v>
       </c>
       <c r="I91">
         <f t="shared" si="8"/>
-        <v>3.5800118629408947E-2</v>
+        <v>3.5802403066229373E-2</v>
       </c>
       <c r="J91">
         <f t="shared" si="9"/>
@@ -4644,11 +4644,11 @@
       </c>
       <c r="L91">
         <f t="shared" si="11"/>
-        <v>0.96419988137059109</v>
+        <v>0.96419759693377061</v>
       </c>
       <c r="M91">
         <f t="shared" si="12"/>
-        <v>3.6456660044649793E-2</v>
+        <v>3.6459029303940155E-2</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -4675,11 +4675,11 @@
       </c>
       <c r="H92">
         <f t="shared" si="7"/>
-        <v>-2.5229907002596477</v>
+        <v>-2.5229622441192019</v>
       </c>
       <c r="I92">
         <f t="shared" si="8"/>
-        <v>7.4262080860530752E-2</v>
+        <v>7.4264037164898239E-2</v>
       </c>
       <c r="J92">
         <f t="shared" si="9"/>
@@ -4691,11 +4691,11 @@
       </c>
       <c r="L92">
         <f t="shared" si="11"/>
-        <v>0.92573791913946923</v>
+        <v>0.92573596283510173</v>
       </c>
       <c r="M92">
         <f t="shared" si="12"/>
-        <v>7.7164109082401386E-2</v>
+        <v>7.7166222322438471E-2</v>
       </c>
     </row>
   </sheetData>
